--- a/Interface.xlsx
+++ b/Interface.xlsx
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Курс/Exchange rate</t>
   </si>
@@ -163,6 +163,39 @@
   </si>
   <si>
     <t>cbr.ru</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
   </si>
 </sst>
 </file>
@@ -432,6 +465,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -441,31 +477,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -775,7 +808,7 @@
   <dimension ref="E2:Z33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,17 +829,39 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -850,37 +905,37 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="Q5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="26" t="s">
+      <c r="S5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="25" t="s">
+      <c r="T5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="U5" s="28" t="s">
         <v>9</v>
       </c>
       <c r="V5" s="5"/>
@@ -896,17 +951,17 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
       <c r="Q6" s="27"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
@@ -924,21 +979,21 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="19" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="20"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="19" t="s">
+      <c r="O7" s="21"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="22"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>

--- a/Interface.xlsx
+++ b/Interface.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE068BD-11EF-460D-80AE-208533BD6199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="K5" authorId="0" shapeId="0">
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -33,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="0" shapeId="0">
+    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M5" authorId="0" shapeId="0">
+    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N5" authorId="0" shapeId="0">
+    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O5" authorId="0" shapeId="0">
+    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Курс/Exchange rate</t>
   </si>
@@ -196,12 +205,15 @@
   </si>
   <si>
     <t>u</t>
+  </si>
+  <si>
+    <t>Дата обменного курса</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -439,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -465,6 +477,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -594,6 +607,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -629,6 +659,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -804,11 +851,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E2:Z33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,37 +952,37 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="N5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="29" t="s">
+      <c r="O5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="29" t="s">
+      <c r="P5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="26" t="s">
+      <c r="Q5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="28" t="s">
+      <c r="R5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="23" t="s">
+      <c r="S5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="28" t="s">
+      <c r="T5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="U5" s="28" t="s">
+      <c r="U5" s="29" t="s">
         <v>9</v>
       </c>
       <c r="V5" s="5"/>
@@ -951,17 +998,17 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
@@ -979,21 +1026,21 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="20" t="s">
+      <c r="K7" s="20"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="20" t="s">
+      <c r="O7" s="22"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="23"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
@@ -1259,8 +1306,12 @@
     </row>
     <row r="17" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="19">
+        <v>43864</v>
+      </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>

--- a/Interface.xlsx
+++ b/Interface.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE068BD-11EF-460D-80AE-208533BD6199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89DCA74-5195-4A1D-B684-DA0A2337C267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Курс/Exchange rate</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>Дата обменного курса</t>
+  </si>
+  <si>
+    <t>Курс доллара ручной ввод (0 - автоматическое получение курса)</t>
   </si>
 </sst>
 </file>
@@ -855,7 +858,7 @@
   <dimension ref="E2:Z33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,8 +1361,12 @@
     </row>
     <row r="19" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
